--- a/data/trans_dic/P13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,0</t>
+          <t>4,04; 6,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,14</t>
+          <t>5,54; 8,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,71</t>
+          <t>4,65; 7,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 15,23</t>
+          <t>10,1; 15,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,67</t>
+          <t>5,87; 8,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,29; 17,07</t>
+          <t>13,16; 17,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,68</t>
+          <t>8,66; 13,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,02; 20,03</t>
+          <t>15,78; 20,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 7,47</t>
+          <t>5,39; 7,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,32; 13,09</t>
+          <t>10,49; 13,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,4; 9,99</t>
+          <t>7,22; 10,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,27; 17,61</t>
+          <t>14,14; 17,4</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,21</t>
+          <t>1,61; 3,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,7</t>
+          <t>3,13; 4,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,74</t>
+          <t>2,19; 3,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 4,87</t>
+          <t>3,11; 4,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,24</t>
+          <t>2,55; 4,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 7,54</t>
+          <t>5,22; 7,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,4</t>
+          <t>2,75; 4,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,6</t>
+          <t>3,83; 5,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,42</t>
+          <t>2,2; 3,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 5,86</t>
+          <t>4,27; 5,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,78</t>
+          <t>2,64; 3,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 4,88</t>
+          <t>3,68; 4,95</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,62</t>
+          <t>0,96; 3,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,89</t>
+          <t>1,5; 4,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,11</t>
+          <t>1,27; 3,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,58</t>
+          <t>2,66; 5,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,9</t>
+          <t>2,49; 6,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,71</t>
+          <t>2,0; 5,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,52</t>
+          <t>1,99; 5,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,16</t>
+          <t>2,01; 4,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,95</t>
+          <t>1,9; 3,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,47</t>
+          <t>2,13; 4,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,13</t>
+          <t>2,02; 4,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,37</t>
+          <t>2,53; 4,38</t>
         </is>
       </c>
     </row>
@@ -1144,57 +1144,57 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,89</t>
+          <t>2,56; 3,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 5,46</t>
+          <t>3,96; 5,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,1</t>
+          <t>2,9; 4,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,51; 6,1</t>
+          <t>4,52; 6,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 5,62</t>
+          <t>4,11; 5,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,29; 10,28</t>
+          <t>8,33; 10,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 6,36</t>
+          <t>4,7; 6,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,04</t>
+          <t>6,44; 8,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,54</t>
+          <t>3,58; 4,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 7,61</t>
+          <t>6,37; 7,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 5,09</t>
+          <t>3,99; 5,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 6,8</t>
+          <t>4,08; 7,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 8,98</t>
+          <t>5,69; 9,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,88</t>
+          <t>4,45; 7,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,75</t>
+          <t>5,89; 8,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,16; 17,08</t>
+          <t>13,19; 17,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,66; 13,04</t>
+          <t>8,79; 12,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,39; 7,55</t>
+          <t>5,41; 7,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,49; 13,2</t>
+          <t>10,44; 13,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,15</t>
+          <t>7,29; 10,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,13</t>
+          <t>1,62; 3,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,89</t>
+          <t>3,04; 4,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,78</t>
+          <t>2,13; 3,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,48</t>
+          <t>2,43; 4,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 7,62</t>
+          <t>5,13; 7,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 4,5</t>
+          <t>2,75; 4,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,37</t>
+          <t>2,25; 3,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 5,8</t>
+          <t>4,31; 5,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,78</t>
+          <t>2,62; 3,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,62</t>
+          <t>0,92; 3,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,86</t>
+          <t>1,46; 4,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,99</t>
+          <t>1,34; 3,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,0</t>
+          <t>2,37; 5,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,89</t>
+          <t>1,99; 6,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,64</t>
+          <t>2,01; 5,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,99</t>
+          <t>1,83; 4,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,65</t>
+          <t>2,12; 4,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,18</t>
+          <t>2,06; 4,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,82</t>
+          <t>2,65; 3,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 5,44</t>
+          <t>3,94; 5,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,19</t>
+          <t>2,85; 4,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,6</t>
+          <t>4,11; 5,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 10,26</t>
+          <t>8,34; 10,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,7; 6,38</t>
+          <t>4,83; 6,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 4,52</t>
+          <t>3,59; 4,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 7,66</t>
+          <t>6,39; 7,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 5,06</t>
+          <t>4,04; 5,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,09</t>
+          <t>3,97; 7,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 9,3</t>
+          <t>5,6; 9,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 7,8</t>
+          <t>4,46; 7,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,1; 15,25</t>
+          <t>10,23; 15,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 8,67</t>
+          <t>5,74; 8,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 17,29</t>
+          <t>13,29; 17,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,79; 12,95</t>
+          <t>8,64; 12,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,78; 20,01</t>
+          <t>16,02; 20,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,41; 7,48</t>
+          <t>5,33; 7,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 13,11</t>
+          <t>10,32; 13,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,29; 10,06</t>
+          <t>7,4; 9,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,14; 17,4</t>
+          <t>14,27; 17,61</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,09</t>
+          <t>1,63; 3,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,78</t>
+          <t>2,98; 4,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,69</t>
+          <t>2,08; 3,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 4,96</t>
+          <t>3,14; 4,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,25</t>
+          <t>2,44; 4,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 7,62</t>
+          <t>5,08; 7,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 4,45</t>
+          <t>2,72; 4,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,52</t>
+          <t>3,86; 5,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,46</t>
+          <t>2,21; 3,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 5,81</t>
+          <t>4,36; 5,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 3,79</t>
+          <t>2,61; 3,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 4,95</t>
+          <t>3,68; 4,88</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,53</t>
+          <t>0,99; 3,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,79</t>
+          <t>1,49; 4,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,96</t>
+          <t>1,08; 4,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,77</t>
+          <t>2,68; 5,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,84</t>
+          <t>2,36; 5,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,01</t>
+          <t>1,93; 5,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,47</t>
+          <t>2,09; 5,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,26</t>
+          <t>2,05; 4,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,01</t>
+          <t>1,93; 3,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,66</t>
+          <t>1,96; 4,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,15</t>
+          <t>2,06; 4,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,38</t>
+          <t>2,64; 4,37</t>
         </is>
       </c>
     </row>
@@ -1144,57 +1144,57 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,89</t>
+          <t>2,59; 3,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 5,39</t>
+          <t>3,95; 5,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,2</t>
+          <t>2,87; 4,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,03</t>
+          <t>4,51; 6,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,57</t>
+          <t>4,15; 5,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 10,33</t>
+          <t>8,29; 10,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,43</t>
+          <t>4,74; 6,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,0</t>
+          <t>6,44; 8,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 4,56</t>
+          <t>3,54; 4,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 7,66</t>
+          <t>6,33; 7,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 5,04</t>
+          <t>4,03; 5,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>15,5%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 15,23</t>
+          <t>9,86; 14,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,02; 20,03</t>
+          <t>15,87; 19,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,27; 17,61</t>
+          <t>14,0; 17,33</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 4,87</t>
+          <t>2,46; 4,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,6</t>
+          <t>3,23; 5,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 4,88</t>
+          <t>3,1; 4,56</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,38%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,58</t>
+          <t>2,65; 5,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,16</t>
+          <t>2,03; 4,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,37</t>
+          <t>2,61; 4,35</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>5,86%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,51; 6,1</t>
+          <t>3,81; 5,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,04</t>
+          <t>5,64; 7,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 6,87</t>
+          <t>5,05; 6,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,0</t>
+          <t>4,07; 6,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,14</t>
+          <t>5,53; 9,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,71</t>
+          <t>4,54; 7,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,86; 14,86</t>
+          <t>9,76; 15,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,67</t>
+          <t>5,95; 8,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,29; 17,07</t>
+          <t>13,01; 16,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,68</t>
+          <t>8,73; 12,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,87; 19,83</t>
+          <t>16,01; 20,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 7,47</t>
+          <t>5,37; 7,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,32; 13,09</t>
+          <t>10,36; 13,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,4; 9,99</t>
+          <t>7,31; 10,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,0; 17,33</t>
+          <t>13,98; 17,17</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,21</t>
+          <t>1,6; 3,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,7</t>
+          <t>3,01; 4,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,74</t>
+          <t>2,15; 3,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,38</t>
+          <t>2,37; 4,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,24</t>
+          <t>2,35; 4,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 7,54</t>
+          <t>5,22; 7,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,4</t>
+          <t>2,79; 4,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,3</t>
+          <t>3,11; 5,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,42</t>
+          <t>2,23; 3,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 5,86</t>
+          <t>4,3; 5,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,78</t>
+          <t>2,66; 3,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 4,56</t>
+          <t>3,08; 4,61</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,62</t>
+          <t>0,85; 3,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,89</t>
+          <t>1,58; 4,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,11</t>
+          <t>1,19; 4,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,63</t>
+          <t>2,57; 5,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,9</t>
+          <t>2,33; 6,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,71</t>
+          <t>1,99; 5,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,52</t>
+          <t>1,89; 5,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,09</t>
+          <t>2,11; 4,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,95</t>
+          <t>1,94; 3,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,47</t>
+          <t>2,09; 4,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,13</t>
+          <t>1,93; 4,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,35</t>
+          <t>2,58; 4,37</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,89</t>
+          <t>2,62; 3,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 5,46</t>
+          <t>3,93; 5,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,1</t>
+          <t>2,82; 4,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,76</t>
+          <t>3,69; 5,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 5,62</t>
+          <t>4,05; 5,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,29; 10,28</t>
+          <t>8,3; 10,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 6,36</t>
+          <t>4,77; 6,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 7,63</t>
+          <t>5,62; 7,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,54</t>
+          <t>3,58; 4,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 7,61</t>
+          <t>6,37; 7,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 5,09</t>
+          <t>4,0; 5,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,46</t>
+          <t>5,09; 6,55</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>55134</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>70005</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45245</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>62816</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>93927</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>201460</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>105845</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>133463</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>149061</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>271465</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>151090</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>196280</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>42042; 71744</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>53853; 89993</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34236; 58945</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>50148; 78729</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>78234; 113748</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>173958; 226968</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>86697; 126627</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>120470; 151546</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>126000; 174522</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>239379; 303052</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>127762; 174872</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>177115; 217480</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>38561</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>75715</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>59167</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>79677</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>51585</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>110835</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>69972</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>96191</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>90146</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>186550</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>129139</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>175868</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>27164; 51595</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>59073; 96434</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44595; 77110</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>54291; 99761</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>37244; 65579</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>91609; 135090</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>55494; 90434</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>69505; 116605</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>73155; 111134</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>159747; 217204</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>107980; 153848</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>139443; 208767</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10717</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13221</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13169</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24884</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>18380</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16155</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18833</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19247</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29097</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>29376</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>32002</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44131</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4677; 19022</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7591; 22724</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6529; 22304</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16599; 37757</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11089; 28654</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9115; 26120</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10358; 29123</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13941; 26900</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19945; 40838</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19633; 43214</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21112; 46189</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>33737; 57178</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>104411</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>158941</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>117581</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>167378</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>163893</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>328450</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>194650</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>248901</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>268304</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>487391</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>312231</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>416279</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>85961; 125506</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>134151; 185426</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>95224; 141781</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>127411; 197834</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>137011; 189635</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>294577; 361267</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>168395; 227271</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>204923; 278993</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>238296; 303755</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>443556; 533177</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>276423; 348098</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>361056; 464596</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>